--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H2">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N2">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O2">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P2">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q2">
-        <v>96.88818106697556</v>
+        <v>118.6659721680011</v>
       </c>
       <c r="R2">
-        <v>96.88818106697556</v>
+        <v>1067.99374951201</v>
       </c>
       <c r="S2">
-        <v>0.03083408755574509</v>
+        <v>0.03364780185011944</v>
       </c>
       <c r="T2">
-        <v>0.03083408755574509</v>
+        <v>0.03364780185011943</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H3">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P3">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q3">
-        <v>49.74616440316656</v>
+        <v>59.67714035389776</v>
       </c>
       <c r="R3">
-        <v>49.74616440316656</v>
+        <v>537.0942631850799</v>
       </c>
       <c r="S3">
-        <v>0.01583142104514697</v>
+        <v>0.01692148605808319</v>
       </c>
       <c r="T3">
-        <v>0.01583142104514697</v>
+        <v>0.01692148605808319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H4">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N4">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O4">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P4">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q4">
-        <v>44.12725031775351</v>
+        <v>57.14312195398777</v>
       </c>
       <c r="R4">
-        <v>44.12725031775351</v>
+        <v>514.2880975858899</v>
       </c>
       <c r="S4">
-        <v>0.01404323504588592</v>
+        <v>0.01620296374332883</v>
       </c>
       <c r="T4">
-        <v>0.01404323504588592</v>
+        <v>0.01620296374332883</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H5">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I5">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J5">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N5">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O5">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P5">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q5">
-        <v>11.6786604568707</v>
+        <v>19.31398477254444</v>
       </c>
       <c r="R5">
-        <v>11.6786604568707</v>
+        <v>173.8258629529</v>
       </c>
       <c r="S5">
-        <v>0.003716664252495805</v>
+        <v>0.005476491033526805</v>
       </c>
       <c r="T5">
-        <v>0.003716664252495805</v>
+        <v>0.005476491033526805</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H6">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J6">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N6">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O6">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P6">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q6">
-        <v>1169.441419848455</v>
+        <v>1211.143380320018</v>
       </c>
       <c r="R6">
-        <v>1169.441419848455</v>
+        <v>10900.29042288017</v>
       </c>
       <c r="S6">
-        <v>0.3721677787097269</v>
+        <v>0.3434203734108108</v>
       </c>
       <c r="T6">
-        <v>0.3721677787097269</v>
+        <v>0.3434203734108108</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H7">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J7">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P7">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q7">
-        <v>600.4367559696387</v>
+        <v>609.084240204303</v>
       </c>
       <c r="R7">
-        <v>600.4367559696387</v>
+        <v>5481.758161838728</v>
       </c>
       <c r="S7">
-        <v>0.191085427565797</v>
+        <v>0.1727061722075652</v>
       </c>
       <c r="T7">
-        <v>0.191085427565797</v>
+        <v>0.1727061722075652</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H8">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J8">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N8">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O8">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P8">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q8">
-        <v>532.6164006518975</v>
+        <v>583.2212269529971</v>
       </c>
       <c r="R8">
-        <v>532.6164006518975</v>
+        <v>5248.991042576974</v>
       </c>
       <c r="S8">
-        <v>0.1695020027259457</v>
+        <v>0.1653727005372289</v>
       </c>
       <c r="T8">
-        <v>0.1695020027259457</v>
+        <v>0.1653727005372289</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H9">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J9">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N9">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O9">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P9">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q9">
-        <v>140.9615612163252</v>
+        <v>197.1247896722378</v>
       </c>
       <c r="R9">
-        <v>140.9615612163252</v>
+        <v>1774.12310705014</v>
       </c>
       <c r="S9">
-        <v>0.04486017874083275</v>
+        <v>0.05589484282189617</v>
       </c>
       <c r="T9">
-        <v>0.04486017874083275</v>
+        <v>0.05589484282189618</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H10">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N10">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O10">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P10">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q10">
-        <v>41.36820379775834</v>
+        <v>45.31529685945834</v>
       </c>
       <c r="R10">
-        <v>41.36820379775834</v>
+        <v>407.837671735125</v>
       </c>
       <c r="S10">
-        <v>0.01316518489538204</v>
+        <v>0.01284917741496878</v>
       </c>
       <c r="T10">
-        <v>0.01316518489538204</v>
+        <v>0.01284917741496878</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H11">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I11">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J11">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P11">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q11">
-        <v>21.24004645896306</v>
+        <v>22.78907155483333</v>
       </c>
       <c r="R11">
-        <v>21.24004645896306</v>
+        <v>205.1016439935</v>
       </c>
       <c r="S11">
-        <v>0.006759518498453776</v>
+        <v>0.006461853807084869</v>
       </c>
       <c r="T11">
-        <v>0.006759518498453776</v>
+        <v>0.006461853807084871</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H12">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I12">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J12">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N12">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O12">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P12">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q12">
-        <v>18.84094699762854</v>
+        <v>21.82139907095834</v>
       </c>
       <c r="R12">
-        <v>18.84094699762854</v>
+        <v>196.392591638625</v>
       </c>
       <c r="S12">
-        <v>0.005996019359228594</v>
+        <v>0.006187469740630318</v>
       </c>
       <c r="T12">
-        <v>0.005996019359228594</v>
+        <v>0.006187469740630319</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H13">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I13">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J13">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N13">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O13">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P13">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q13">
-        <v>4.986420433785213</v>
+        <v>7.375483784583334</v>
       </c>
       <c r="R13">
-        <v>4.986420433785213</v>
+        <v>66.37935406125001</v>
       </c>
       <c r="S13">
-        <v>0.001586898655252968</v>
+        <v>0.002091322494548686</v>
       </c>
       <c r="T13">
-        <v>0.001586898655252968</v>
+        <v>0.002091322494548686</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H14">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I14">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J14">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N14">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O14">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P14">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q14">
-        <v>196.183726288615</v>
+        <v>267.3395342201396</v>
       </c>
       <c r="R14">
-        <v>196.183726288615</v>
+        <v>2406.055807981257</v>
       </c>
       <c r="S14">
-        <v>0.06243430444022798</v>
+        <v>0.07580427236046473</v>
       </c>
       <c r="T14">
-        <v>0.06243430444022798</v>
+        <v>0.07580427236046475</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H15">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I15">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J15">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N15">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O15">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P15">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q15">
-        <v>100.7283632916272</v>
+        <v>134.4451034641506</v>
       </c>
       <c r="R15">
-        <v>100.7283632916272</v>
+        <v>1210.005931177356</v>
       </c>
       <c r="S15">
-        <v>0.03205620271613883</v>
+        <v>0.0381219832310143</v>
       </c>
       <c r="T15">
-        <v>0.03205620271613883</v>
+        <v>0.0381219832310143</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H16">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I16">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J16">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N16">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O16">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P16">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q16">
-        <v>89.35092291827652</v>
+        <v>128.7362782098637</v>
       </c>
       <c r="R16">
-        <v>89.35092291827652</v>
+        <v>1158.626503888773</v>
       </c>
       <c r="S16">
-        <v>0.02843539996425665</v>
+        <v>0.0365032426818596</v>
       </c>
       <c r="T16">
-        <v>0.02843539996425665</v>
+        <v>0.0365032426818596</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H17">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I17">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J17">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N17">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O17">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P17">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q17">
-        <v>23.647498603618</v>
+        <v>43.51198240483667</v>
       </c>
       <c r="R17">
-        <v>23.647498603618</v>
+        <v>391.60784164353</v>
       </c>
       <c r="S17">
-        <v>0.007525675829483068</v>
+        <v>0.01233784660686937</v>
       </c>
       <c r="T17">
-        <v>0.007525675829483068</v>
+        <v>0.01233784660686937</v>
       </c>
     </row>
   </sheetData>
